--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.54979509603513</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H2">
-        <v>1.54979509603513</v>
+        <v>4.998251</v>
       </c>
       <c r="I2">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="J2">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N2">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O2">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P2">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q2">
-        <v>5.21308558762558</v>
+        <v>8.186263776242333</v>
       </c>
       <c r="R2">
-        <v>5.21308558762558</v>
+        <v>73.67637398618101</v>
       </c>
       <c r="S2">
-        <v>0.1496241824994579</v>
+        <v>0.1961245954882335</v>
       </c>
       <c r="T2">
-        <v>0.1496241824994579</v>
+        <v>0.1961245954882335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.54979509603513</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H3">
-        <v>1.54979509603513</v>
+        <v>4.998251</v>
       </c>
       <c r="I3">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="J3">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N3">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O3">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P3">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q3">
-        <v>5.988828362864182</v>
+        <v>6.439265645581555</v>
       </c>
       <c r="R3">
-        <v>5.988828362864182</v>
+        <v>57.953390810234</v>
       </c>
       <c r="S3">
-        <v>0.1718892837766083</v>
+        <v>0.1542704223196505</v>
       </c>
       <c r="T3">
-        <v>0.1718892837766083</v>
+        <v>0.1542704223196505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.54979509603513</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H4">
-        <v>1.54979509603513</v>
+        <v>4.998251</v>
       </c>
       <c r="I4">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="J4">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N4">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O4">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P4">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q4">
-        <v>9.845466534420691</v>
+        <v>10.94144523208255</v>
       </c>
       <c r="R4">
-        <v>9.845466534420691</v>
+        <v>98.47300708874299</v>
       </c>
       <c r="S4">
-        <v>0.2825811809104468</v>
+        <v>0.2621325892804128</v>
       </c>
       <c r="T4">
-        <v>0.2825811809104468</v>
+        <v>0.2621325892804128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0156888115828</v>
+        <v>1.053930333333333</v>
       </c>
       <c r="H5">
-        <v>1.0156888115828</v>
+        <v>3.161791</v>
       </c>
       <c r="I5">
-        <v>0.395905352813487</v>
+        <v>0.3874723929117032</v>
       </c>
       <c r="J5">
-        <v>0.395905352813487</v>
+        <v>0.3874723929117031</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N5">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O5">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P5">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q5">
-        <v>3.416498554370717</v>
+        <v>5.178462452435667</v>
       </c>
       <c r="R5">
-        <v>3.416498554370717</v>
+        <v>46.60616207192101</v>
       </c>
       <c r="S5">
-        <v>0.09805916181804562</v>
+        <v>0.124064393903655</v>
       </c>
       <c r="T5">
-        <v>0.09805916181804562</v>
+        <v>0.124064393903655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0156888115828</v>
+        <v>1.053930333333333</v>
       </c>
       <c r="H6">
-        <v>1.0156888115828</v>
+        <v>3.161791</v>
       </c>
       <c r="I6">
-        <v>0.395905352813487</v>
+        <v>0.3874723929117032</v>
       </c>
       <c r="J6">
-        <v>0.395905352813487</v>
+        <v>0.3874723929117031</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N6">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O6">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P6">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q6">
-        <v>3.92489689650754</v>
+        <v>4.073347289843778</v>
       </c>
       <c r="R6">
-        <v>3.92489689650754</v>
+        <v>36.660125608594</v>
       </c>
       <c r="S6">
-        <v>0.1126510354881937</v>
+        <v>0.09758830295966932</v>
       </c>
       <c r="T6">
-        <v>0.1126510354881937</v>
+        <v>0.09758830295966929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0156888115828</v>
+        <v>1.053930333333333</v>
       </c>
       <c r="H7">
-        <v>1.0156888115828</v>
+        <v>3.161791</v>
       </c>
       <c r="I7">
-        <v>0.395905352813487</v>
+        <v>0.3874723929117032</v>
       </c>
       <c r="J7">
-        <v>0.395905352813487</v>
+        <v>0.3874723929117031</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N7">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O7">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P7">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q7">
-        <v>6.452420858348945</v>
+        <v>6.921333694884779</v>
       </c>
       <c r="R7">
-        <v>6.452420858348945</v>
+        <v>62.292003253963</v>
       </c>
       <c r="S7">
-        <v>0.1851951555072478</v>
+        <v>0.1658196960483789</v>
       </c>
       <c r="T7">
-        <v>0.1851951555072478</v>
+        <v>0.1658196960483788</v>
       </c>
     </row>
   </sheetData>
